--- a/results/CNN_2layers_adaptive_maxpool=3/summary.xlsx
+++ b/results/CNN_2layers_adaptive_maxpool=3/summary.xlsx
@@ -1,63 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\CNN_2layers_adaptive_maxpool=3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1008EC25-AEB0-4F2A-89E8-E962F14A3F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="4" r:id="rId1"/>
-    <sheet name="PCC" sheetId="1" r:id="rId2"/>
-    <sheet name="PLV" sheetId="3" r:id="rId3"/>
+    <sheet name="summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PCC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PLV" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
-    <t>Functional Connectivity Networks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">Feature: PCC</t>
   </si>
   <si>
-    <t>Connectivity Matrix (CM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">Functional Connectivity Networks</t>
   </si>
   <si>
-    <t>Sliding Functional Connectivity Convolution (SFCC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">Sliding Functional Connectivity Convolution (SFCC)</t>
   </si>
   <si>
-    <t>Maximum Correlation Sorting Rearranged-Connectivity Matrix (MCSR-CM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume Conductance Sorting Rearranged-Connectivity Matrix (VCSR-CM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">Feature: PLV</t>
   </si>
   <si>
     <t>Identifier</t>
@@ -66,13 +38,84 @@
     <t>accuracy</t>
   </si>
   <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectivity Matrix (CM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Correlation Sorting Rearranged-Connectivity Matrix (MCSR-CM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume Conductance Sorting Rearranged-Connectivity Matrix (VCSR-CM)</t>
+  </si>
+  <si>
+    <t>T-Test</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy Exceed</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 Score Exceed</t>
+  </si>
+  <si>
+    <t>SFCC</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>p&lt;0.01</t>
+  </si>
+  <si>
+    <t>MCSR-CM</t>
+  </si>
+  <si>
+    <t>VCSR-CM</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>PCC</t>
+  </si>
+  <si>
+    <t>PLV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δ Accuracy (%)</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δ 
+F1 Score (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δ
+ F1 Score (%)</t>
+  </si>
+  <si>
     <t>loss</t>
   </si>
   <si>
     <t>recall</t>
-  </si>
-  <si>
-    <t>f1_score</t>
   </si>
   <si>
     <t>sub1ex1</t>
@@ -210,153 +253,36 @@
     <t>sub15ex3</t>
   </si>
   <si>
-    <t>avg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>......</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feature: PCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feature: PLV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCSR-CM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCSR-CM</t>
+    <t>t-test</t>
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t-test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accuracy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p&lt;0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p-value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accuracy Exceed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1 Score Exceed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T-Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Δ Accuracy (%)</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>SFCC</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>p&lt;0.01</t>
-  </si>
-  <si>
-    <t>MCSR-CM</t>
-  </si>
-  <si>
-    <t>PCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Δ F1 Score (%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -370,20 +296,134 @@
   </fills>
   <borders count="15">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -398,282 +438,150 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
-      </top>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="42">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf fontId="2" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,8 +600,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -735,74 +926,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -810,7 +941,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -836,7 +967,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -888,16 +1019,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -913,7 +1056,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -944,1361 +1087,1357 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6462486-0753-4FB4-83EB-7EB6382DF563}">
-  <dimension ref="B1:Y41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="9" style="11"/>
-    <col min="10" max="10" width="9" style="11"/>
+    <col min="3" max="3" style="1" width="9"/>
+    <col min="10" max="10" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-    </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    <row r="1">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="I2" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="I2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="8"/>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="8"/>
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.90298770366141201</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
+        <v>0.89948608125516361</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0.90052684038981501</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15">
+        <v>0.89687665716521991</v>
+      </c>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="8"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="I6" s="8"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="8"/>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="8"/>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="8"/>
+      <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.86056434552009797</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15">
+        <v>0.85672175939396789</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.84905815217547997</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15">
+        <v>0.84519520215310329</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="8"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="I11" s="8"/>
+      <c r="N11" s="19"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="8"/>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="8"/>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.838907603006946</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15">
+        <v>0.8334802112426648</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.89467992322117396</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15">
+        <v>0.89053664705141733</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="8"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="I16" s="8"/>
+      <c r="N16" s="19"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="8"/>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="8"/>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="8"/>
+      <c r="C20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.85872094241491903</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15">
+        <v>0.85531779114934536</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0.83490881793479599</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15">
+        <v>0.83119014395342394</v>
+      </c>
+      <c r="N20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="8"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="I21" s="8"/>
+      <c r="N21" s="19"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="8"/>
+      <c r="C22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="8"/>
+      <c r="C23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="8"/>
+      <c r="C24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="22">
         <v>0</v>
       </c>
-      <c r="K2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="32"/>
-      <c r="C3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="41"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="32"/>
-      <c r="C4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="43"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="32"/>
-      <c r="C5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="44">
-        <v>0.90298770366141201</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44">
-        <v>0.89948608125516361</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="44">
-        <v>0.90052684038981501</v>
-      </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44">
-        <v>0.89687665716521991</v>
-      </c>
-      <c r="N5" s="45"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-      <c r="I6" s="32"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
-      <c r="C7" s="12" t="s">
+      <c r="E24" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="22">
         <v>0</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="12" t="s">
+      <c r="G24" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="22">
         <v>0</v>
       </c>
-      <c r="K7" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="39"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
-      <c r="C8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="41"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
-      <c r="C9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="43"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="32"/>
-      <c r="C10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="44">
-        <v>0.86056434552009797</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44">
-        <v>0.85672175939396789</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="44">
-        <v>0.84905815217547997</v>
-      </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44">
-        <v>0.84519520215310329</v>
-      </c>
-      <c r="N10" s="45"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="32"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="I11" s="32"/>
-      <c r="N11" s="9"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="32"/>
-      <c r="C12" s="12" t="s">
+      <c r="L24" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="22">
         <v>0</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="12" t="s">
+      <c r="N24" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="22">
+        <f>D5-D10</f>
+        <v>4.2423358141314038e-002</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="22">
+        <f>F5-F10</f>
+        <v>4.276432186119572e-002</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="22">
+        <f>K5-K10</f>
+        <v>5.1468688214335034e-002</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="22">
+        <f>M5-M10</f>
+        <v>5.1681455012116628e-002</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="8"/>
+      <c r="C26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="22">
+        <f>D5-D15</f>
+        <v>6.408010065446601e-002</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="22">
+        <f>F5-F15</f>
+        <v>6.6005870012498802e-002</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="22">
+        <f>K5-K15</f>
+        <v>5.8469171686410526e-003</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="22">
+        <f>M5-M15</f>
+        <v>6.3400101138025855e-003</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="28">
+        <f>D5-D20</f>
+        <v>4.426676124649298e-002</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="28">
+        <f>F5-F20</f>
+        <v>4.4168290105818242e-002</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="28">
+        <f>K5-K20</f>
+        <v>6.5618022455019021e-002</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="28">
+        <f>M5-M20</f>
+        <v>6.5686513211795972e-002</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
-      <c r="C13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" s="41"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
-      <c r="C14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="43"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
-      <c r="C15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="44">
-        <v>0.838907603006946</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44">
-        <v>0.8334802112426648</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="44">
-        <v>0.89467992322117396</v>
-      </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44">
-        <v>0.89053664705141733</v>
-      </c>
-      <c r="N15" s="45"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
-      <c r="I16" s="32"/>
-      <c r="N16" s="9"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="32"/>
-      <c r="C17" s="12" t="s">
+      <c r="C29" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="12" t="s">
+      <c r="J29" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="8"/>
+      <c r="C30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="8"/>
+      <c r="C31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="22">
         <v>0</v>
       </c>
-      <c r="K17" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="39"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="32"/>
-      <c r="C18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="41"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
-      <c r="C19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="43"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="43"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
-      <c r="C20" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="44">
-        <v>0.85872094241491903</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44">
-        <v>0.85531779114934536</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="44">
-        <v>0.83490881793479599</v>
-      </c>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44">
-        <v>0.83119014395342394</v>
-      </c>
-      <c r="N20" s="45"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="I21" s="32"/>
-      <c r="N21" s="9"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B22" s="32"/>
-      <c r="C22" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="39"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
-      <c r="C23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
-      <c r="C24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="E31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="22">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G31" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="22">
         <v>0</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="22">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B25" s="32"/>
-      <c r="C25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="3">
-        <f>D5-D10</f>
-        <v>4.2423358141314038E-2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="3">
-        <f>F5-F10</f>
-        <v>4.276432186119572E-2</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K25" s="3">
-        <f>K5-K10</f>
-        <v>5.1468688214335034E-2</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="3">
-        <f>M5-M10</f>
-        <v>5.1681455012116628E-2</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B26" s="32"/>
-      <c r="C26" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="3">
-        <f>D5-D15</f>
-        <v>6.408010065446601E-2</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="3">
-        <f>F5-F15</f>
-        <v>6.6005870012498802E-2</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="K26" s="3">
-        <f>K5-K15</f>
-        <v>5.8469171686410526E-3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M26" s="3">
-        <f>M5-M15</f>
-        <v>6.3400101138025855E-3</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B27" s="33"/>
-      <c r="C27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="5">
-        <f>D5-D20</f>
-        <v>4.426676124649298E-2</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="5">
-        <f>F5-F20</f>
-        <v>4.4168290105818242E-2</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="5">
-        <f>K5-K20</f>
-        <v>6.5618022455019021E-2</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27" s="5">
-        <f>M5-M20</f>
-        <v>6.5686513211795972E-2</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B29" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="I29" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="39"/>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="32"/>
-      <c r="C30" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="32"/>
-      <c r="C31" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B32" s="32"/>
-      <c r="C32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="3">
-        <f>D25*100</f>
+      <c r="N31" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="8"/>
+      <c r="C32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="22">
+        <f t="shared" ref="D32:D34" si="0">D25*100</f>
         <v>4.2423358141314038</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="3">
-        <f>F25*100</f>
+      <c r="E32" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" ref="F32:F34" si="1">F25*100</f>
         <v>4.276432186119572</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K32" s="3">
-        <f>K25*100</f>
+      <c r="G32" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="22">
+        <f t="shared" ref="K32:K34" si="2">K25*100</f>
         <v>5.1468688214335039</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M32" s="3">
-        <f>M25*100</f>
+      <c r="L32" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="22">
+        <f t="shared" ref="M32:M34" si="3">M25*100</f>
         <v>5.1681455012116633</v>
       </c>
-      <c r="N32" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="32"/>
-      <c r="C33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" ref="D33:D34" si="0">D26*100</f>
+      <c r="N32" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="8"/>
+      <c r="C33" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="22">
+        <f t="shared" si="0"/>
         <v>6.408010065446601</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" ref="F33:F34" si="1">F26*100</f>
+      <c r="E33" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" si="1"/>
         <v>6.6005870012498802</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="K33" s="3">
-        <f t="shared" ref="K33:K34" si="2">K26*100</f>
+      <c r="G33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="22">
+        <f t="shared" si="2"/>
         <v>0.58469171686410526</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M33" s="3">
-        <f t="shared" ref="M33:M34" si="3">M26*100</f>
+      <c r="L33" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="22">
+        <f t="shared" si="3"/>
         <v>0.63400101138025855</v>
       </c>
-      <c r="N33" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="33"/>
-      <c r="C34" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="N33" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="28">
         <f t="shared" si="0"/>
         <v>4.4266761246492976</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="E34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="28">
         <f t="shared" si="1"/>
         <v>4.4168290105818242</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="G34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="28">
         <f t="shared" si="2"/>
         <v>6.5618022455019016</v>
       </c>
-      <c r="L34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M34" s="5">
+      <c r="L34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="28">
         <f t="shared" si="3"/>
         <v>6.5686513211795976</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36"/>
-    </row>
-    <row r="37" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="26">
+      <c r="N34" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35"/>
+    <row r="36">
+      <c r="B36" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+    </row>
+    <row r="37" ht="42.75">
+      <c r="B37" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="36">
         <v>0</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="26">
+      <c r="D38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="36">
         <v>0</v>
       </c>
-      <c r="F38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="29">
+      <c r="F38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="37">
         <v>0</v>
       </c>
-      <c r="H38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="26">
+      <c r="H38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="36">
         <v>0</v>
       </c>
-      <c r="J38" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="26">
+      <c r="J38" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="36">
         <v>4.2423358139999996</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="26">
+      <c r="D39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="36">
         <v>4.2764321860000001</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="29">
+      <c r="F39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="37">
         <v>5.146868821</v>
       </c>
-      <c r="H39" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39" s="26">
+      <c r="H39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="36">
         <v>5.1681455009999997</v>
       </c>
-      <c r="J39" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="26">
+      <c r="J39" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="28.5">
+      <c r="B40" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="36">
         <v>6.408010065</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="26">
+      <c r="D40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="36">
         <v>6.6005870010000001</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="29">
+      <c r="F40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="37">
         <v>0.584691717</v>
       </c>
-      <c r="H40" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40" s="26">
+      <c r="H40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="36">
         <v>0.63400101099999995</v>
       </c>
-      <c r="J40" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="28">
+      <c r="J40" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="B41" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="39">
         <v>4.4266761250000002</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="28">
+      <c r="D41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="39">
         <v>4.4168290109999999</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="30">
+      <c r="F41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="40">
         <v>6.5618022460000001</v>
       </c>
-      <c r="H41" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I41" s="28">
+      <c r="H41" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="39">
         <v>6.5686513209999999</v>
       </c>
-      <c r="J41" s="20" t="s">
-        <v>81</v>
+      <c r="J41" s="26" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="B2:B27"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I2:I27"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="K7:N7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D14:E14"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="B2:B27"/>
-    <mergeCell ref="I2:I27"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="J22:N22"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
     <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="I29:I34"/>
+    <mergeCell ref="J29:N29"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="G36:J36"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="J29:N29"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="13"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="H1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
       <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
       <c r="S1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>88.672566371681413</v>
@@ -2313,7 +2452,7 @@
         <v>0.86954364847611598</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>82.213427451794558</v>
@@ -2328,7 +2467,7 @@
         <v>0.81862063390884499</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>81.165321499320925</v>
@@ -2343,7 +2482,7 @@
         <v>0.80358190357840387</v>
       </c>
       <c r="S3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="T3">
         <v>85.959221100528552</v>
@@ -2358,9 +2497,9 @@
         <v>0.85628099266065172</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>88.053270357010007</v>
@@ -2375,7 +2514,7 @@
         <v>0.87775337832946188</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>81.565843995190264</v>
@@ -2390,7 +2529,7 @@
         <v>0.8107987915171796</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>72.418965561985829</v>
@@ -2405,7 +2544,7 @@
         <v>0.72005559839170719</v>
       </c>
       <c r="S4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="T4">
         <v>79.354838709677423</v>
@@ -2420,9 +2559,9 @@
         <v>0.7895746689197608</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>83.48082595870207</v>
@@ -2437,7 +2576,7 @@
         <v>0.83458271615956647</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>76.320988935890455</v>
@@ -2452,7 +2591,7 @@
         <v>0.76213233818494486</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N5">
         <v>73.994757740118857</v>
@@ -2467,7 +2606,7 @@
         <v>0.73357128091569512</v>
       </c>
       <c r="S5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="T5">
         <v>77.058279050856839</v>
@@ -2482,9 +2621,9 @@
         <v>0.7711235793261545</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>88.410193859808473</v>
@@ -2499,7 +2638,7 @@
         <v>0.88150261410786823</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>70.334950994385764</v>
@@ -2514,7 +2653,7 @@
         <v>0.68032283657833392</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>75.812507028607513</v>
@@ -2529,7 +2668,7 @@
         <v>0.74432999024857716</v>
       </c>
       <c r="S6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="T6">
         <v>83.958165728077233</v>
@@ -2544,9 +2683,9 @@
         <v>0.83102309361862603</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>87.05551086082059</v>
@@ -2561,7 +2700,7 @@
         <v>0.86564735245825231</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>76.457149283298307</v>
@@ -2576,7 +2715,7 @@
         <v>0.75440802562779385</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>81.076652912222428</v>
@@ -2591,7 +2730,7 @@
         <v>0.80537465981678658</v>
       </c>
       <c r="S7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="T7">
         <v>83.664564572357889</v>
@@ -2606,9 +2745,9 @@
         <v>0.83593368837782767</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>87.729132604953321</v>
@@ -2623,7 +2762,7 @@
         <v>0.87481623347548276</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>81.335046150918259</v>
@@ -2638,7 +2777,7 @@
         <v>0.81005798589508571</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>82.89725689668596</v>
@@ -2653,7 +2792,7 @@
         <v>0.82719100140836643</v>
       </c>
       <c r="S8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="T8">
         <v>85.192432460488405</v>
@@ -2668,9 +2807,9 @@
         <v>0.84935632778292758</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>83.21533923303835</v>
@@ -2685,7 +2824,7 @@
         <v>0.82754635474103111</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>76.671684011107359</v>
@@ -2700,7 +2839,7 @@
         <v>0.76198069824649495</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>73.46049706312337</v>
@@ -2715,7 +2854,7 @@
         <v>0.72627970313866363</v>
       </c>
       <c r="S9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="T9">
         <v>71.929341949324822</v>
@@ -2730,9 +2869,9 @@
         <v>0.71599871219567857</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>88.761927006288971</v>
@@ -2747,7 +2886,7 @@
         <v>0.87544362231563255</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>86.314068460799831</v>
@@ -2762,7 +2901,7 @@
         <v>0.85288896044580831</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>79.362970267908892</v>
@@ -2777,7 +2916,7 @@
         <v>0.78058839268598479</v>
       </c>
       <c r="S10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="T10">
         <v>79.82750715836643</v>
@@ -2792,9 +2931,9 @@
         <v>0.78402846446205232</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>89.203539823008853</v>
@@ -2809,7 +2948,7 @@
         <v>0.87729155029985417</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>86.698068322390327</v>
@@ -2824,7 +2963,7 @@
         <v>0.86173075496325935</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>84.637323852282464</v>
@@ -2839,7 +2978,7 @@
         <v>0.83881195401520814</v>
       </c>
       <c r="S11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="T11">
         <v>87.611138504658342</v>
@@ -2854,9 +2993,9 @@
         <v>0.86535977453632618</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>91.917577141670776</v>
@@ -2871,7 +3010,7 @@
         <v>0.91940239003493429</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>86.66908883294839</v>
@@ -2886,7 +3025,7 @@
         <v>0.86693332532411327</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>84.608171350963246</v>
@@ -2901,7 +3040,7 @@
         <v>0.84667743949721785</v>
       </c>
       <c r="S12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="T12">
         <v>85.634391300962804</v>
@@ -2916,9 +3055,9 @@
         <v>0.85786008724322182</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>82.655040268514441</v>
@@ -2933,7 +3072,7 @@
         <v>0.82032360908815571</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>78.678275763631177</v>
@@ -2948,7 +3087,7 @@
         <v>0.78143545067457476</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>78.353964999697226</v>
@@ -2963,7 +3102,7 @@
         <v>0.77870033554870388</v>
       </c>
       <c r="S13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="T13">
         <v>75.72894229188833</v>
@@ -2978,9 +3117,9 @@
         <v>0.75189603923954662</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>89.410029498525063</v>
@@ -2995,7 +3134,7 @@
         <v>0.89249868406387523</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H14">
         <v>83.574511890241268</v>
@@ -3010,7 +3149,7 @@
         <v>0.83425211377587105</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>79.655360340487377</v>
@@ -3025,7 +3164,7 @@
         <v>0.79429562284867194</v>
       </c>
       <c r="S14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="T14">
         <v>82.510488845059214</v>
@@ -3040,9 +3179,9 @@
         <v>0.82283780826338959</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>87.729305616830601</v>
@@ -3057,7 +3196,7 @@
         <v>0.87380833418593817</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H15">
         <v>83.659893251671718</v>
@@ -3072,7 +3211,7 @@
         <v>0.83578618913903813</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>79.417469009247483</v>
@@ -3087,7 +3226,7 @@
         <v>0.77854653559289577</v>
       </c>
       <c r="S15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="T15">
         <v>83.010060640662985</v>
@@ -3102,9 +3241,9 @@
         <v>0.82251080327472148</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>90.324829799565734</v>
@@ -3119,7 +3258,7 @@
         <v>0.90560756784872609</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <v>88.319103106428258</v>
@@ -3134,7 +3273,7 @@
         <v>0.88087037546218316</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>83.016116056367267</v>
@@ -3149,7 +3288,7 @@
         <v>0.82611779263791885</v>
       </c>
       <c r="S16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="T16">
         <v>84.04994852896651</v>
@@ -3164,9 +3303,9 @@
         <v>0.84023477923225531</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>75.429112708587439</v>
@@ -3181,7 +3320,7 @@
         <v>0.75321165124818779</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H17">
         <v>80.532011522591034</v>
@@ -3196,7 +3335,7 @@
         <v>0.80134713739074181</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>74.015951695083871</v>
@@ -3211,7 +3350,7 @@
         <v>0.72896637343207149</v>
       </c>
       <c r="S17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="T17">
         <v>76.196420384259369</v>
@@ -3226,9 +3365,9 @@
         <v>0.76218559040965916</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>85.13274336283186</v>
@@ -3243,7 +3382,7 @@
         <v>0.83600428230390056</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H18">
         <v>84.808951634529706</v>
@@ -3258,7 +3397,7 @@
         <v>0.8326123760037587</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>80.356923502798466</v>
@@ -3273,7 +3412,7 @@
         <v>0.78510848784162734</v>
       </c>
       <c r="S18" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="T18">
         <v>86.106367702142762</v>
@@ -3288,9 +3427,9 @@
         <v>0.85167424482315024</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>92.566371681415916</v>
@@ -3305,7 +3444,7 @@
         <v>0.92271554327995453</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H19">
         <v>91.327433628318587</v>
@@ -3320,7 +3459,7 @@
         <v>0.9125766410728271</v>
       </c>
       <c r="M19" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>90.590662548983985</v>
@@ -3335,7 +3474,7 @@
         <v>0.90422992042798644</v>
       </c>
       <c r="S19" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="T19">
         <v>89.616519174041301</v>
@@ -3350,9 +3489,9 @@
         <v>0.89233385442416746</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>86.489848528101447</v>
@@ -3367,7 +3506,7 @@
         <v>0.85377332376400972</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H20">
         <v>85.604892775889056</v>
@@ -3382,7 +3521,7 @@
         <v>0.84900331001418172</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>82.807550238323856</v>
@@ -3397,7 +3536,7 @@
         <v>0.81362923237809481</v>
       </c>
       <c r="S20" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="T20">
         <v>85.13274336283186</v>
@@ -3412,9 +3551,9 @@
         <v>0.83902631501403258</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>90.884955752212392</v>
@@ -3429,7 +3568,7 @@
         <v>0.9083337094348225</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H21">
         <v>85.75878684071661</v>
@@ -3444,7 +3583,7 @@
         <v>0.85711988681636897</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>81.638162959887197</v>
@@ -3459,7 +3598,7 @@
         <v>0.81653193055670459</v>
       </c>
       <c r="S21" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="T21">
         <v>81.02007802835665</v>
@@ -3474,9 +3613,9 @@
         <v>0.81112360210644963</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>94.660766961651916</v>
@@ -3491,7 +3630,7 @@
         <v>0.9453119984673195</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H22">
         <v>92.0655888026713</v>
@@ -3506,7 +3645,7 @@
         <v>0.91997101883377308</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N22">
         <v>89.061929601467099</v>
@@ -3521,7 +3660,7 @@
         <v>0.88950331529394622</v>
       </c>
       <c r="S22" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="T22">
         <v>90.357788562184794</v>
@@ -3536,9 +3675,9 @@
         <v>0.89937931931445081</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>93.54068806823588</v>
@@ -3553,7 +3692,7 @@
         <v>0.93512615530908116</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H23">
         <v>87.500237891331238</v>
@@ -3568,7 +3707,7 @@
         <v>0.87372237198943581</v>
       </c>
       <c r="M23" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N23">
         <v>78.930527080684087</v>
@@ -3583,7 +3722,7 @@
         <v>0.78261018932067938</v>
       </c>
       <c r="S23" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="T23">
         <v>85.317347035874008</v>
@@ -3598,9 +3737,9 @@
         <v>0.85394409450672693</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>92.33107552833502</v>
@@ -3615,7 +3754,7 @@
         <v>0.92065617195407601</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H24">
         <v>90.649313575376951</v>
@@ -3630,7 +3769,7 @@
         <v>0.90336624887833228</v>
       </c>
       <c r="M24" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N24">
         <v>85.550048010795948</v>
@@ -3645,7 +3784,7 @@
         <v>0.85088738765365546</v>
       </c>
       <c r="S24" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="T24">
         <v>87.848683812143705</v>
@@ -3660,9 +3799,9 @@
         <v>0.87590180507643756</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>96.283185840707958</v>
@@ -3677,7 +3816,7 @@
         <v>0.9624491736321884</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H25">
         <v>94.306784660766965</v>
@@ -3692,7 +3831,7 @@
         <v>0.94197567171189522</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N25">
         <v>90.501820950008209</v>
@@ -3707,7 +3846,7 @@
         <v>0.90304380462504041</v>
       </c>
       <c r="S25" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="T25">
         <v>94.159638059152755</v>
@@ -3722,9 +3861,9 @@
         <v>0.94123222802749562</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>97.43362831858407</v>
@@ -3739,7 +3878,7 @@
         <v>0.97405482988250447</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H26">
         <v>96.578344103322692</v>
@@ -3754,7 +3893,7 @@
         <v>0.96552953056448199</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>95.486725663716811</v>
@@ -3769,7 +3908,7 @@
         <v>0.95431342805075392</v>
       </c>
       <c r="S26" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T26">
         <v>96.371681415929203</v>
@@ -3784,9 +3923,9 @@
         <v>0.96391070798395317</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>93.569321533923301</v>
@@ -3801,7 +3940,7 @@
         <v>0.93599116285343142</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H27">
         <v>90.121281325963025</v>
@@ -3816,7 +3955,7 @@
         <v>0.89917774707009301</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N27">
         <v>87.027223418887701</v>
@@ -3831,7 +3970,7 @@
         <v>0.86671244116407442</v>
       </c>
       <c r="S27" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="T27">
         <v>89.853545445894866</v>
@@ -3846,9 +3985,9 @@
         <v>0.89610349978367698</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>89.970501474926252</v>
@@ -3863,7 +4002,7 @@
         <v>0.89596607112613502</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H28">
         <v>88.850595593387496</v>
@@ -3878,7 +4017,7 @@
         <v>0.88638620996740103</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N28">
         <v>84.960596544952807</v>
@@ -3893,7 +4032,7 @@
         <v>0.84827374904444175</v>
       </c>
       <c r="S28" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="T28">
         <v>89.440047059230622</v>
@@ -3908,9 +4047,9 @@
         <v>0.89503224943810122</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>95.073746312684364</v>
@@ -3925,7 +4064,7 @@
         <v>0.94870398757101027</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H29">
         <v>93.716814159292042</v>
@@ -3940,7 +4079,7 @@
         <v>0.93388215305462929</v>
       </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N29">
         <v>89.943252104256956</v>
@@ -3955,7 +4094,7 @@
         <v>0.89557292430120428</v>
       </c>
       <c r="S29" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="T29">
         <v>91.949151809271711</v>
@@ -3970,9 +4109,9 @@
         <v>0.91717995421166643</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>91.415929203539832</v>
@@ -3987,7 +4126,7 @@
         <v>0.9111169965055993</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H30">
         <v>85.19381655550653</v>
@@ -4002,7 +4141,7 @@
         <v>0.84125830588797401</v>
       </c>
       <c r="M30" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>82.280556060173538</v>
@@ -4017,7 +4156,7 @@
         <v>0.81436605336291112</v>
       </c>
       <c r="S30" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="T30">
         <v>84.456180416785614</v>
@@ -4032,9 +4171,9 @@
         <v>0.83519181778022133</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>89.35103244837758</v>
@@ -4049,7 +4188,7 @@
         <v>0.89287835624952705</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H31">
         <v>81.304336542703666</v>
@@ -4064,7 +4203,7 @@
         <v>0.81403169854013357</v>
       </c>
       <c r="M31" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>76.320469900258658</v>
@@ -4079,7 +4218,7 @@
         <v>0.75438889975473189</v>
       </c>
       <c r="S31" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="T31">
         <v>83.808077924549522</v>
@@ -4094,9 +4233,9 @@
         <v>0.83717500179830218</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>90.767999723180992</v>
@@ -4111,7 +4250,7 @@
         <v>0.90498574029623202</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="H32">
         <v>86.019083210062377</v>
@@ -4126,7 +4265,7 @@
         <v>0.85459227797939563</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>82.517063296395293</v>
@@ -4141,7 +4280,7 @@
         <v>0.82015810923527899</v>
       </c>
       <c r="S32" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="T32">
         <v>84.163444320452598</v>
@@ -4156,9 +4295,9 @@
         <v>0.83794639018219141</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>94.365781710914447</v>
@@ -4173,7 +4312,7 @@
         <v>0.94312229949805548</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H33">
         <v>90.856841322156768</v>
@@ -4188,7 +4327,7 @@
         <v>0.90671122914429036</v>
       </c>
       <c r="M33" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N33">
         <v>91.596726615282137</v>
@@ -4203,7 +4342,7 @@
         <v>0.91517334065209399</v>
       </c>
       <c r="S33" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="T33">
         <v>89.087794877118313</v>
@@ -4218,9 +4357,9 @@
         <v>0.88993396998841645</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B34">
         <v>93.987664253150982</v>
@@ -4235,7 +4374,7 @@
         <v>0.93701414105364411</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H34">
         <v>91.07699893597696</v>
@@ -4250,7 +4389,7 @@
         <v>0.90958110854670815</v>
       </c>
       <c r="M34" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N34">
         <v>88.736580766269611</v>
@@ -4265,7 +4404,7 @@
         <v>0.88272945116039758</v>
       </c>
       <c r="S34" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="T34">
         <v>90.094897014680058</v>
@@ -4280,9 +4419,9 @@
         <v>0.89882493828842325</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>96.873156342182895</v>
@@ -4297,7 +4436,7 @@
         <v>0.96860310436112051</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H35">
         <v>94.660766961651916</v>
@@ -4312,7 +4451,7 @@
         <v>0.94237846626950428</v>
       </c>
       <c r="M35" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="N35">
         <v>92.392494744764221</v>
@@ -4327,7 +4466,7 @@
         <v>0.92335703401108626</v>
       </c>
       <c r="S35" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="T35">
         <v>95.722713864306783</v>
@@ -4342,9 +4481,9 @@
         <v>0.95684255940688312</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>93.185840707964601</v>
@@ -4359,7 +4498,7 @@
         <v>0.93082729139968345</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="H36">
         <v>87.174543032379177</v>
@@ -4374,7 +4513,7 @@
         <v>0.86671416377162402</v>
       </c>
       <c r="M36" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N36">
         <v>83.043711450791108</v>
@@ -4389,7 +4528,7 @@
         <v>0.82774639971430941</v>
       </c>
       <c r="S36" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="T36">
         <v>83.098556215884216</v>
@@ -4404,9 +4543,9 @@
         <v>0.82423650036779283</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>90.000519035631797</v>
@@ -4421,7 +4560,7 @@
         <v>0.89935627287326603</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H37">
         <v>79.44938970060295</v>
@@ -4436,7 +4575,7 @@
         <v>0.79602639262269803</v>
       </c>
       <c r="M37" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N37">
         <v>75.74174517080597</v>
@@ -4451,7 +4590,7 @@
         <v>0.75373623146859914</v>
       </c>
       <c r="S37" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="T37">
         <v>77.70759262623379</v>
@@ -4466,9 +4605,9 @@
         <v>0.77282734151133214</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B38">
         <v>94.660939973529182</v>
@@ -4483,7 +4622,7 @@
         <v>0.94466020344310542</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H38">
         <v>92.566717705170461</v>
@@ -4498,7 +4637,7 @@
         <v>0.92495914965179382</v>
       </c>
       <c r="M38" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="N38">
         <v>91.328471699582181</v>
@@ -4513,7 +4652,7 @@
         <v>0.90957714858575467</v>
       </c>
       <c r="S38" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="T38">
         <v>87.708803709374649</v>
@@ -4528,9 +4667,9 @@
         <v>0.87206776344114156</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B39">
         <v>90.235988200589958</v>
@@ -4545,7 +4684,7 @@
         <v>0.90338552681169693</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="H39">
         <v>84.573136445816999</v>
@@ -4560,7 +4699,7 @@
         <v>0.84066397043364849</v>
       </c>
       <c r="M39" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="N39">
         <v>85.017863476327648</v>
@@ -4575,7 +4714,7 @@
         <v>0.83985714583133697</v>
       </c>
       <c r="S39" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="T39">
         <v>88.318584070796462</v>
@@ -4590,9 +4729,9 @@
         <v>0.88185800178921903</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B40">
         <v>91.327433628318573</v>
@@ -4607,7 +4746,7 @@
         <v>0.91334814664287833</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H40">
         <v>87.911833147345561</v>
@@ -4622,7 +4761,7 @@
         <v>0.88010173554180271</v>
       </c>
       <c r="M40" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N40">
         <v>88.380522322857459</v>
@@ -4637,7 +4776,7 @@
         <v>0.88329077860050087</v>
       </c>
       <c r="S40" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="T40">
         <v>88.761407970657189</v>
@@ -4652,9 +4791,9 @@
         <v>0.88607371785132494</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>92.949852507374629</v>
@@ -4669,7 +4808,7 @@
         <v>0.9252665842011687</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H41">
         <v>89.115044247787608</v>
@@ -4684,7 +4823,7 @@
         <v>0.8873942419094053</v>
       </c>
       <c r="M41" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N41">
         <v>88.289085545722713</v>
@@ -4699,7 +4838,7 @@
         <v>0.87553831458569964</v>
       </c>
       <c r="S41" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="T41">
         <v>88.732082457460706</v>
@@ -4714,9 +4853,9 @@
         <v>0.88388995087003841</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B42">
         <v>89.823700897066573</v>
@@ -4731,7 +4870,7 @@
         <v>0.89307921201952767</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="H42">
         <v>81.397503438611054</v>
@@ -4746,7 +4885,7 @@
         <v>0.80883642679615486</v>
       </c>
       <c r="M42" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="N42">
         <v>85.874185762852619</v>
@@ -4761,7 +4900,7 @@
         <v>0.85583591082048405</v>
       </c>
       <c r="S42" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="T42">
         <v>90.826304725819426</v>
@@ -4776,9 +4915,9 @@
         <v>0.90665028825364691</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B43">
         <v>83.097518144620636</v>
@@ -4793,7 +4932,7 @@
         <v>0.82603814653277341</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H43">
         <v>76.705161809358216</v>
@@ -4808,7 +4947,7 @@
         <v>0.76493412241321768</v>
       </c>
       <c r="M43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="N43">
         <v>76.998243929445749</v>
@@ -4823,7 +4962,7 @@
         <v>0.76431389692922436</v>
       </c>
       <c r="S43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="T43">
         <v>79.532694919506227</v>
@@ -4838,9 +4977,9 @@
         <v>0.7880605499244292</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B44">
         <v>82.537219180096713</v>
@@ -4855,7 +4994,7 @@
         <v>0.81406462473756913</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H44">
         <v>76.552824851426038</v>
@@ -4870,7 +5009,7 @@
         <v>0.75541036784526727</v>
       </c>
       <c r="M44" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="N44">
         <v>75.964930492478317</v>
@@ -4885,7 +5024,7 @@
         <v>0.74617310327347719</v>
       </c>
       <c r="S44" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="T44">
         <v>77.789340738241691</v>
@@ -4900,9 +5039,9 @@
         <v>0.76878054722945066</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B45">
         <v>96.873156342182895</v>
@@ -4917,7 +5056,7 @@
         <v>0.96868561885001936</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H45">
         <v>95.516224188790559</v>
@@ -4932,13 +5071,13 @@
         <v>0.95518958691957589</v>
       </c>
       <c r="M45" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="N45">
         <v>97.256637168141594</v>
       </c>
       <c r="O45">
-        <v>9.546122279564126E-2</v>
+        <v>9.546122279564126e-002</v>
       </c>
       <c r="P45">
         <v>0.97256637168141591</v>
@@ -4947,7 +5086,7 @@
         <v>0.97255219366585166</v>
       </c>
       <c r="S45" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="T45">
         <v>95.427728613569315</v>
@@ -4962,15 +5101,15 @@
         <v>0.95408976740961848</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B46">
         <v>98.34808259587021</v>
       </c>
       <c r="C46">
-        <v>8.4021998034339643E-2</v>
+        <v>8.4021998034339643e-002</v>
       </c>
       <c r="D46">
         <v>0.98348082595870212</v>
@@ -4979,7 +5118,7 @@
         <v>0.98345413623504851</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="H46">
         <v>97.287000752601671</v>
@@ -4994,7 +5133,7 @@
         <v>0.97288866206495117</v>
       </c>
       <c r="M46" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="N46">
         <v>97.345305755240105</v>
@@ -5009,7 +5148,7 @@
         <v>0.9732159654030681</v>
       </c>
       <c r="S46" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="T46">
         <v>94.601769911504419</v>
@@ -5024,9 +5163,9 @@
         <v>0.9470911959177073</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>93.657817109144545</v>
@@ -5041,7 +5180,7 @@
         <v>0.92892113835992995</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H47">
         <v>94.545195027638641</v>
@@ -5056,7 +5195,7 @@
         <v>0.94191848327897121</v>
       </c>
       <c r="M47" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="N47">
         <v>95.250910475004119</v>
@@ -5071,7 +5210,7 @@
         <v>0.95109413445002211</v>
       </c>
       <c r="S47" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="T47">
         <v>95.546933797005153</v>
@@ -5086,9 +5225,9 @@
         <v>0.95471401545730639</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B48">
         <f>AVERAGE(B3:B47)</f>
@@ -5099,7 +5238,7 @@
         <v>0.89948608125516361</v>
       </c>
       <c r="G48" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H48">
         <f>AVERAGE(H3:H47)</f>
@@ -5110,7 +5249,7 @@
         <v>0.85672175939396789</v>
       </c>
       <c r="M48" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="N48">
         <f>AVERAGE(N3:N47)</f>
@@ -5121,7 +5260,7 @@
         <v>0.8334802112426648</v>
       </c>
       <c r="S48" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="T48">
         <f>AVERAGE(T3:T47)</f>
@@ -5132,267 +5271,267 @@
         <v>0.85531779114934536</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
       <c r="G50" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
+      <c r="H50" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
       <c r="M50" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
       <c r="S50" t="s">
-        <v>0</v>
-      </c>
-      <c r="T50" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="T50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="41"/>
-      <c r="G51" s="1" t="s">
+      <c r="E51" s="11"/>
+      <c r="G51" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="40" t="s">
+      <c r="I51" s="11"/>
+      <c r="J51" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="41"/>
-      <c r="J51" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K51" s="41"/>
-      <c r="M51" s="1" t="s">
+      <c r="K51" s="11"/>
+      <c r="M51" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="40" t="s">
+      <c r="O51" s="11"/>
+      <c r="P51" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O51" s="41"/>
-      <c r="P51" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q51" s="41"/>
-      <c r="S51" s="1" t="s">
+      <c r="Q51" s="11"/>
+      <c r="S51" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="T51" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T51" s="40" t="s">
+      <c r="U51" s="11"/>
+      <c r="V51" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U51" s="41"/>
-      <c r="V51" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="W51" s="41"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W51" s="11"/>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="42"/>
+        <v>7</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="12"/>
       <c r="G52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="42"/>
+        <v>7</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="12"/>
       <c r="M52" t="s">
-        <v>56</v>
-      </c>
-      <c r="N52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q52" s="42"/>
+        <v>7</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q52" s="12"/>
       <c r="S52" t="s">
-        <v>56</v>
-      </c>
-      <c r="T52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="W52" s="42"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="W52" s="12"/>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="46">
+        <v>8</v>
+      </c>
+      <c r="B53" s="17">
         <v>90.298770366141156</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46">
+      <c r="C53" s="17"/>
+      <c r="D53" s="17">
         <v>0.89948608125516361</v>
       </c>
-      <c r="E53" s="46"/>
+      <c r="E53" s="17"/>
       <c r="G53" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="46">
+        <v>8</v>
+      </c>
+      <c r="H53" s="17">
         <v>86.056434552009776</v>
       </c>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46">
+      <c r="I53" s="17"/>
+      <c r="J53" s="17">
         <v>0.85672175939396789</v>
       </c>
-      <c r="K53" s="46"/>
+      <c r="K53" s="17"/>
       <c r="M53" t="s">
-        <v>55</v>
-      </c>
-      <c r="N53" s="46">
+        <v>8</v>
+      </c>
+      <c r="N53" s="17">
         <v>83.890760300694637</v>
       </c>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46">
+      <c r="O53" s="17"/>
+      <c r="P53" s="17">
         <v>0.8334802112426648</v>
       </c>
-      <c r="Q53" s="46"/>
+      <c r="Q53" s="17"/>
       <c r="S53" t="s">
-        <v>55</v>
-      </c>
-      <c r="T53" s="46">
+        <v>8</v>
+      </c>
+      <c r="T53" s="17">
         <v>85.872094241491908</v>
       </c>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46">
+      <c r="U53" s="17"/>
+      <c r="V53" s="17">
         <v>0.85531779114934536</v>
       </c>
-      <c r="W53" s="46"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W53" s="17"/>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="47"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="3">
+        <v>19</v>
+      </c>
+      <c r="B57" s="22">
         <f>_xlfn.T.TEST(B3:B47,H3:H47,1,1)</f>
-        <v>4.4961683933148884E-10</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>65</v>
+        <v>4.4961683933148884e-010</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="D57">
         <f>_xlfn.T.TEST(E3:E47,K3:K47,1,1)</f>
-        <v>1.6167197386027222E-9</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1.6167197386027222e-009</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="3">
+        <v>21</v>
+      </c>
+      <c r="B58" s="22">
         <f>_xlfn.T.TEST(B3:B47,N3:N47,1,1)</f>
-        <v>1.0995986664504578E-14</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>65</v>
+        <v>1.0995986664504578e-014</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="D58">
         <f>_xlfn.T.TEST(E3:E47,Q3:Q47,1,1)</f>
-        <v>1.8690449034260338E-14</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1.8690449034260338e-014</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="3">
+        <v>22</v>
+      </c>
+      <c r="B59" s="22">
         <f>_xlfn.T.TEST(B3:B47,T3:T47,1,1)</f>
-        <v>9.0373042094104443E-12</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>65</v>
+        <v>9.0373042094104443e-012</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="D59">
         <f>_xlfn.T.TEST(E3:E47,W3:W47,1,1)</f>
-        <v>3.8665425366918918E-11</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>65</v>
+        <v>3.8665425366918918e-011</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5432,123 +5571,125 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5890F0E5-A17B-4021-A739-E086557B4D76}">
-  <dimension ref="A1:W59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="H1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
       <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
       <c r="S1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>87.669616519174042</v>
@@ -5563,7 +5704,7 @@
         <v>0.85638583365462484</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>83.62901063157986</v>
@@ -5578,7 +5719,7 @@
         <v>0.83545329301090765</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>88.820058997050154</v>
@@ -5593,7 +5734,7 @@
         <v>0.8739582526955173</v>
       </c>
       <c r="S3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="T3">
         <v>82.746477045649186</v>
@@ -5608,9 +5749,9 @@
         <v>0.81721349440249713</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>88.466076696165189</v>
@@ -5625,7 +5766,7 @@
         <v>0.87744629647490346</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>81.564113876417622</v>
@@ -5640,7 +5781,7 @@
         <v>0.81149511228100446</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>87.964601769911511</v>
@@ -5655,7 +5796,7 @@
         <v>0.8756517000523939</v>
       </c>
       <c r="S4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="T4">
         <v>75.99737021946558</v>
@@ -5670,9 +5811,9 @@
         <v>0.75345684070643593</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>86.224188790560476</v>
@@ -5687,7 +5828,7 @@
         <v>0.8644456965887739</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>81.152345608526019</v>
@@ -5702,7 +5843,7 @@
         <v>0.81237985141137226</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N5">
         <v>86.696165191740405</v>
@@ -5717,7 +5858,7 @@
         <v>0.86572822717688513</v>
       </c>
       <c r="S5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="T5">
         <v>78.441249491777612</v>
@@ -5732,9 +5873,9 @@
         <v>0.78367853627417805</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>87.16969869981574</v>
@@ -5749,7 +5890,7 @@
         <v>0.86801938661909495</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>75.479026635178499</v>
@@ -5764,7 +5905,7 @@
         <v>0.73903789420641375</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>87.99427330686251</v>
@@ -5779,7 +5920,7 @@
         <v>0.87623579319572931</v>
       </c>
       <c r="S6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="T6">
         <v>78.982430643863694</v>
@@ -5794,9 +5935,9 @@
         <v>0.78389057137600593</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>87.262000536336828</v>
@@ -5811,7 +5952,7 @@
         <v>0.8689468143668071</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>83.188608898000851</v>
@@ -5826,7 +5967,7 @@
         <v>0.83064103802698652</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>89.058988399553627</v>
@@ -5841,7 +5982,7 @@
         <v>0.88926995244648344</v>
       </c>
       <c r="S7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="T7">
         <v>83.753406171333651</v>
@@ -5856,9 +5997,9 @@
         <v>0.83652386519687005</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>87.610792480903825</v>
@@ -5873,7 +6014,7 @@
         <v>0.87313940691066994</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>86.874194413446475</v>
@@ -5888,7 +6029,7 @@
         <v>0.867384595478493</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>87.404129793510322</v>
@@ -5903,7 +6044,7 @@
         <v>0.87213156831808658</v>
       </c>
       <c r="S8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="T8">
         <v>82.421647246083438</v>
@@ -5918,9 +6059,9 @@
         <v>0.82144586825178167</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>83.657817109144531</v>
@@ -5935,7 +6076,7 @@
         <v>0.83395698956926234</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>73.780655542002961</v>
@@ -5950,7 +6091,7 @@
         <v>0.73525976794412073</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>83.628318584070797</v>
@@ -5965,7 +6106,7 @@
         <v>0.83051223468919866</v>
       </c>
       <c r="S9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="T9">
         <v>71.661433057379398</v>
@@ -5980,9 +6121,9 @@
         <v>0.71338849464265874</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>88.613569321533916</v>
@@ -5997,7 +6138,7 @@
         <v>0.87352947910646628</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>83.542591198885802</v>
@@ -6012,7 +6153,7 @@
         <v>0.82156713782540369</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>89.203712834886119</v>
@@ -6027,7 +6168,7 @@
         <v>0.88024712605472788</v>
       </c>
       <c r="S10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="T10">
         <v>78.412962049844722</v>
@@ -6042,9 +6183,9 @@
         <v>0.76936961789998048</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>89.734686286213545</v>
@@ -6059,7 +6200,7 @@
         <v>0.88690743527933491</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <v>87.581120943952811</v>
@@ -6074,7 +6215,7 @@
         <v>0.86828538896202367</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>88.761234958779909</v>
@@ -6089,7 +6230,7 @@
         <v>0.87809517687517524</v>
       </c>
       <c r="S11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="T11">
         <v>85.106705075303424</v>
@@ -6104,9 +6245,9 @@
         <v>0.84342517390239524</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>90.796633188868412</v>
@@ -6121,7 +6262,7 @@
         <v>0.90792152562169404</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>87.96563984117509</v>
@@ -6136,7 +6277,7 @@
         <v>0.87976565854606537</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>90.678466076696168</v>
@@ -6151,7 +6292,7 @@
         <v>0.90673024710770789</v>
       </c>
       <c r="S12" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="T12">
         <v>85.1955466742792</v>
@@ -6166,9 +6307,9 @@
         <v>0.85253930257114496</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>81.858407079646014</v>
@@ -6183,7 +6324,7 @@
         <v>0.80315290825676711</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>74.308341767662355</v>
@@ -6198,7 +6339,7 @@
         <v>0.72544860119386512</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>82.536873156342182</v>
@@ -6213,7 +6354,7 @@
         <v>0.81481304724635351</v>
       </c>
       <c r="S13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="T13">
         <v>74.252285919428374</v>
@@ -6228,9 +6369,9 @@
         <v>0.7310182671461829</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>89.646017699115049</v>
@@ -6245,7 +6386,7 @@
         <v>0.89429317263088071</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H14">
         <v>83.869151117224192</v>
@@ -6260,7 +6401,7 @@
         <v>0.83669292001286377</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>90.442477876106196</v>
@@ -6275,7 +6416,7 @@
         <v>0.90335634892996242</v>
       </c>
       <c r="S14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="T14">
         <v>79.478715213799433</v>
@@ -6290,9 +6431,9 @@
         <v>0.79425768627784543</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>87.345132743362825</v>
@@ -6307,7 +6448,7 @@
         <v>0.86708280018988171</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H15">
         <v>82.214984558689963</v>
@@ -6322,7 +6463,7 @@
         <v>0.81658601057652613</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>85.457227138643063</v>
@@ -6337,7 +6478,7 @@
         <v>0.84331176853814294</v>
       </c>
       <c r="S15" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="T15">
         <v>77.828181904687753</v>
@@ -6352,9 +6493,9 @@
         <v>0.76914783915837781</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>88.820405020804671</v>
@@ -6369,7 +6510,7 @@
         <v>0.88726506342806977</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <v>83.83601934272788</v>
@@ -6384,7 +6525,7 @@
         <v>0.83466241969802613</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>89.882005899705021</v>
@@ -6399,7 +6540,7 @@
         <v>0.89799776981469992</v>
       </c>
       <c r="S16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="T16">
         <v>81.714201679945319</v>
@@ -6414,9 +6555,9 @@
         <v>0.81483562008885424</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>81.061946902654867</v>
@@ -6431,7 +6572,7 @@
         <v>0.81271173043869571</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H17">
         <v>77.552487478265377</v>
@@ -6446,7 +6587,7 @@
         <v>0.77411727300315436</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>80.176991150442475</v>
@@ -6461,7 +6602,7 @@
         <v>0.79575655985434868</v>
       </c>
       <c r="S17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="T17">
         <v>75.724616994956705</v>
@@ -6476,9 +6617,9 @@
         <v>0.76061785611155142</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>87.876106194690266</v>
@@ -6493,7 +6634,7 @@
         <v>0.86320880429937785</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H18">
         <v>84.041297935103245</v>
@@ -6508,7 +6649,7 @@
         <v>0.82581653712312852</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>85.604892775889056</v>
@@ -6523,7 +6664,7 @@
         <v>0.83924735250657678</v>
       </c>
       <c r="S18" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="T18">
         <v>83.720101384960074</v>
@@ -6538,9 +6679,9 @@
         <v>0.8272337211315145</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>93.068019619546888</v>
@@ -6555,7 +6696,7 @@
         <v>0.93076757120521592</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H19">
         <v>89.736243393108936</v>
@@ -6570,7 +6711,7 @@
         <v>0.89662779628781786</v>
       </c>
       <c r="M19" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>91.799410029498517</v>
@@ -6585,7 +6726,7 @@
         <v>0.91723199945278622</v>
       </c>
       <c r="S19" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="T19">
         <v>87.404821841019384</v>
@@ -6600,9 +6741,9 @@
         <v>0.87358657634700054</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>87.404129793510322</v>
@@ -6617,7 +6758,7 @@
         <v>0.86453773520817057</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H20">
         <v>82.597254301507803</v>
@@ -6632,7 +6773,7 @@
         <v>0.81220324163160629</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>88.908554572271385</v>
@@ -6647,7 +6788,7 @@
         <v>0.87950022960571561</v>
       </c>
       <c r="S20" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="T20">
         <v>83.747696779383915</v>
@@ -6662,9 +6803,9 @@
         <v>0.82628316454633044</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>88.967551622418881</v>
@@ -6679,7 +6820,7 @@
         <v>0.88906385888549178</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H21">
         <v>82.365418385972205</v>
@@ -6694,7 +6835,7 @@
         <v>0.82289696633999365</v>
       </c>
       <c r="M21" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>88.082768882083755</v>
@@ -6709,7 +6850,7 @@
         <v>0.8800618027232604</v>
       </c>
       <c r="S21" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="T21">
         <v>83.077189249041936</v>
@@ -6724,9 +6865,9 @@
         <v>0.82963411809966225</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>93.392330383480825</v>
@@ -6741,7 +6882,7 @@
         <v>0.93198958604794035</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H22">
         <v>91.505116826270125</v>
@@ -6756,7 +6897,7 @@
         <v>0.91458877897619273</v>
       </c>
       <c r="M22" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N22">
         <v>93.274336283185832</v>
@@ -6771,7 +6912,7 @@
         <v>0.93069420304169381</v>
       </c>
       <c r="S22" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="T22">
         <v>88.968762705559726</v>
@@ -6786,9 +6927,9 @@
         <v>0.88816131193469872</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>92.920700006055412</v>
@@ -6803,7 +6944,7 @@
         <v>0.92873452838599257</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="H23">
         <v>83.786364933952726</v>
@@ -6818,7 +6959,7 @@
         <v>0.83842281304510391</v>
       </c>
       <c r="M23" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N23">
         <v>90.73763613872093</v>
@@ -6833,7 +6974,7 @@
         <v>0.90664027497923283</v>
       </c>
       <c r="S23" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="T23">
         <v>82.959022136869706</v>
@@ -6848,9 +6989,9 @@
         <v>0.82858718190276814</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>91.799583041375797</v>
@@ -6865,7 +7006,7 @@
         <v>0.91524742772156775</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H24">
         <v>90.118340124049524</v>
@@ -6880,7 +7021,7 @@
         <v>0.89691362717244982</v>
       </c>
       <c r="M24" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="N24">
         <v>92.182890855457231</v>
@@ -6895,7 +7036,7 @@
         <v>0.92018987249276252</v>
       </c>
       <c r="S24" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="T24">
         <v>88.113132466543831</v>
@@ -6910,9 +7051,9 @@
         <v>0.87836083893459416</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>95.899705014749259</v>
@@ -6927,7 +7068,7 @@
         <v>0.95841276584147972</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H25">
         <v>93.570186593309629</v>
@@ -6942,7 +7083,7 @@
         <v>0.93463085851717731</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N25">
         <v>96.135693215339231</v>
@@ -6957,7 +7098,7 @@
         <v>0.96115508981906872</v>
       </c>
       <c r="S25" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="T25">
         <v>91.358316248410446</v>
@@ -6972,9 +7113,9 @@
         <v>0.91258279571823864</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>97.079646017699105</v>
@@ -6989,7 +7130,7 @@
         <v>0.97067360594946772</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H26">
         <v>95.516224188790559</v>
@@ -7004,7 +7145,7 @@
         <v>0.95485008626186263</v>
       </c>
       <c r="M26" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>96.843657817109147</v>
@@ -7019,7 +7160,7 @@
         <v>0.96820727266910855</v>
       </c>
       <c r="S26" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T26">
         <v>94.247787610619469</v>
@@ -7034,9 +7175,9 @@
         <v>0.94268494236149358</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>94.070796460176979</v>
@@ -7051,7 +7192,7 @@
         <v>0.94109139247476425</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H27">
         <v>90.502512997517286</v>
@@ -7066,7 +7207,7 @@
         <v>0.90454265578543536</v>
       </c>
       <c r="M27" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N27">
         <v>92.625541743440692</v>
@@ -7081,7 +7222,7 @@
         <v>0.92682823718853302</v>
       </c>
       <c r="S27" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="T27">
         <v>85.75895985259389</v>
@@ -7096,9 +7237,9 @@
         <v>0.85732740442081568</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>91.56342182890856</v>
@@ -7113,7 +7254,7 @@
         <v>0.91376110804669453</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="H28">
         <v>87.728786581198804</v>
@@ -7128,7 +7269,7 @@
         <v>0.87638036706688927</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N28">
         <v>90.000173011877266</v>
@@ -7143,7 +7284,7 @@
         <v>0.89725895393923216</v>
       </c>
       <c r="S28" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="T28">
         <v>84.367165805932572</v>
@@ -7158,9 +7299,9 @@
         <v>0.84263558609434175</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>92.56637168141593</v>
@@ -7175,7 +7316,7 @@
         <v>0.9212845627716757</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H29">
         <v>89.336239932871393</v>
@@ -7190,7 +7331,7 @@
         <v>0.89095013584981531</v>
       </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N29">
         <v>93.74631268436579</v>
@@ -7205,7 +7346,7 @@
         <v>0.93563639229090234</v>
       </c>
       <c r="S29" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="T29">
         <v>87.762610403204178</v>
@@ -7220,9 +7361,9 @@
         <v>0.87324713642951579</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B30">
         <v>88.377927144698475</v>
@@ -7237,7 +7378,7 @@
         <v>0.87977124337643997</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H30">
         <v>83.163089646104211</v>
@@ -7252,7 +7393,7 @@
         <v>0.82582705039788384</v>
       </c>
       <c r="M30" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>89.085545722713874</v>
@@ -7267,7 +7408,7 @@
         <v>0.88718188028895517</v>
       </c>
       <c r="S30" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="T30">
         <v>77.093659979757618</v>
@@ -7282,9 +7423,9 @@
         <v>0.76317469843848185</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <v>88.672566371681413</v>
@@ -7299,7 +7440,7 @@
         <v>0.88373728657151673</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H31">
         <v>81.451829168072393</v>
@@ -7314,7 +7455,7 @@
         <v>0.81499868004224241</v>
       </c>
       <c r="M31" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>89.941002949852503</v>
@@ -7329,7 +7470,7 @@
         <v>0.89892577815267916</v>
       </c>
       <c r="S31" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="T31">
         <v>79.476293047517714</v>
@@ -7344,9 +7485,9 @@
         <v>0.79167976792848926</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>89.764011799410042</v>
@@ -7361,7 +7502,7 @@
         <v>0.89672455033515774</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="H32">
         <v>78.709504407477567</v>
@@ -7376,7 +7517,7 @@
         <v>0.77947551736269693</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>85.516397200667825</v>
@@ -7391,7 +7532,7 @@
         <v>0.85186943327679321</v>
       </c>
       <c r="S32" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="T32">
         <v>80.865664927897299</v>
@@ -7406,9 +7547,9 @@
         <v>0.80485118003136602</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>92.271386430678461</v>
@@ -7423,7 +7564,7 @@
         <v>0.92154318486742759</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H33">
         <v>86.757411396292355</v>
@@ -7438,7 +7579,7 @@
         <v>0.86558147047517564</v>
       </c>
       <c r="M33" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N33">
         <v>92.831858407079636</v>
@@ -7453,7 +7594,7 @@
         <v>0.92692435228371295</v>
       </c>
       <c r="S33" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="T33">
         <v>87.584581181498109</v>
@@ -7468,9 +7609,9 @@
         <v>0.87471852641842784</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B34">
         <v>93.923822870440048</v>
@@ -7485,7 +7626,7 @@
         <v>0.93771779447944525</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H34">
         <v>89.067465981539641</v>
@@ -7500,7 +7641,7 @@
         <v>0.88921063047268711</v>
       </c>
       <c r="M34" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N34">
         <v>95.014749262536867</v>
@@ -7515,7 +7656,7 @@
         <v>0.94921108848783164</v>
       </c>
       <c r="S34" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="T34">
         <v>89.272225538283209</v>
@@ -7530,9 +7671,9 @@
         <v>0.89049526837943049</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>95.368731563421832</v>
@@ -7547,7 +7688,7 @@
         <v>0.95266038843873724</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H35">
         <v>92.980216091834706</v>
@@ -7562,7 +7703,7 @@
         <v>0.92716181785830365</v>
       </c>
       <c r="M35" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="N35">
         <v>93.805655758267804</v>
@@ -7577,7 +7718,7 @@
         <v>0.9345526260429512</v>
       </c>
       <c r="S35" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="T35">
         <v>93.923476846685531</v>
@@ -7592,9 +7733,9 @@
         <v>0.93867277583434416</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>91.65191740412979</v>
@@ -7609,7 +7750,7 @@
         <v>0.91543151176921334</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="H36">
         <v>81.544304016470733</v>
@@ -7624,7 +7765,7 @@
         <v>0.81219303379573804</v>
       </c>
       <c r="M36" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N36">
         <v>88.171437469182251</v>
@@ -7639,7 +7780,7 @@
         <v>0.87770109704686106</v>
       </c>
       <c r="S36" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="T36">
         <v>80.154759124213882</v>
@@ -7654,9 +7795,9 @@
         <v>0.79420173475755862</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B37">
         <v>88.142111955985769</v>
@@ -7671,7 +7812,7 @@
         <v>0.87954550951262633</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H37">
         <v>75.610775179716086</v>
@@ -7686,7 +7827,7 @@
         <v>0.74288470529106598</v>
       </c>
       <c r="M37" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N37">
         <v>84.781010216351348</v>
@@ -7701,7 +7842,7 @@
         <v>0.84104492274932119</v>
       </c>
       <c r="S37" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="T37">
         <v>78.089862369051644</v>
@@ -7716,9 +7857,9 @@
         <v>0.77600491890989787</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B38">
         <v>93.598820058997063</v>
@@ -7733,7 +7874,7 @@
         <v>0.93371029676536332</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H38">
         <v>93.097345132743357</v>
@@ -7748,7 +7889,7 @@
         <v>0.92906278574385315</v>
       </c>
       <c r="M38" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="N38">
         <v>92.59604321836693</v>
@@ -7763,7 +7904,7 @@
         <v>0.92222785499434112</v>
       </c>
       <c r="S38" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="T38">
         <v>86.82021470773968</v>
@@ -7778,9 +7919,9 @@
         <v>0.86587446368765408</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B39">
         <v>90.619469026548671</v>
@@ -7795,7 +7936,7 @@
         <v>0.90574898088819611</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="H39">
         <v>79.093504269068063</v>
@@ -7810,7 +7951,7 @@
         <v>0.78513820904432463</v>
       </c>
       <c r="M39" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="N39">
         <v>87.610965492781077</v>
@@ -7825,7 +7966,7 @@
         <v>0.87129879704375524</v>
       </c>
       <c r="S39" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="T39">
         <v>83.66612167925328</v>
@@ -7840,9 +7981,9 @@
         <v>0.83632454911952558</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B40">
         <v>91.002949852507371</v>
@@ -7857,7 +7998,7 @@
         <v>0.91048060570004186</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H40">
         <v>85.314232822083241</v>
@@ -7872,7 +8013,7 @@
         <v>0.85197598236893435</v>
       </c>
       <c r="M40" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N40">
         <v>88.761580982534454</v>
@@ -7887,7 +8028,7 @@
         <v>0.88831797034526849</v>
       </c>
       <c r="S40" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="T40">
         <v>83.8117111739721</v>
@@ -7902,9 +8043,9 @@
         <v>0.83651129785193667</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>91.710914454277287</v>
@@ -7919,7 +8060,7 @@
         <v>0.91193188095093858</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H41">
         <v>88.026193998217977</v>
@@ -7934,7 +8075,7 @@
         <v>0.87531380234835898</v>
       </c>
       <c r="M41" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N41">
         <v>89.911504424778769</v>
@@ -7949,7 +8090,7 @@
         <v>0.89137106170849945</v>
       </c>
       <c r="S41" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="T41">
         <v>84.577807766503184</v>
@@ -7964,9 +8105,9 @@
         <v>0.84093618490425714</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B42">
         <v>89.705014749262531</v>
@@ -7981,7 +8122,7 @@
         <v>0.89352475029077194</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="H42">
         <v>83.109282952274683</v>
@@ -7996,7 +8137,7 @@
         <v>0.83081977203875435</v>
       </c>
       <c r="M42" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="N42">
         <v>88.172302528568579</v>
@@ -8011,7 +8152,7 @@
         <v>0.87842722058827039</v>
       </c>
       <c r="S42" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="T42">
         <v>85.050822238946708</v>
@@ -8026,9 +8167,9 @@
         <v>0.84787779476560843</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B43">
         <v>84.189136584226503</v>
@@ -8043,7 +8184,7 @@
         <v>0.83526133055336371</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H43">
         <v>75.244595541483918</v>
@@ -8058,7 +8199,7 @@
         <v>0.75109069234397052</v>
       </c>
       <c r="M43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="N43">
         <v>82.951063590515488</v>
@@ -8073,7 +8214,7 @@
         <v>0.81775672224497886</v>
       </c>
       <c r="S43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="T43">
         <v>78.414519156740113</v>
@@ -8088,9 +8229,9 @@
         <v>0.77730492466498491</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B44">
         <v>81.77043054005658</v>
@@ -8105,7 +8246,7 @@
         <v>0.80792822676055243</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H44">
         <v>73.316637687177234</v>
@@ -8120,7 +8261,7 @@
         <v>0.72788179593557967</v>
       </c>
       <c r="M44" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="N44">
         <v>81.535307398852936</v>
@@ -8135,7 +8276,7 @@
         <v>0.80514851847939894</v>
       </c>
       <c r="S44" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="T44">
         <v>74.845716658448595</v>
@@ -8150,9 +8291,9 @@
         <v>0.73942436868097461</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B45">
         <v>96.25368731563421</v>
@@ -8167,7 +8308,7 @@
         <v>0.96258744556655196</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H45">
         <v>95.427728613569315</v>
@@ -8182,7 +8323,7 @@
         <v>0.95413141587538297</v>
       </c>
       <c r="M45" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="N45">
         <v>96.283185840707958</v>
@@ -8197,7 +8338,7 @@
         <v>0.96278319537369106</v>
       </c>
       <c r="S45" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="T45">
         <v>94.011799410029496</v>
@@ -8212,9 +8353,9 @@
         <v>0.93963689408808926</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B46">
         <v>96.60784262839644</v>
@@ -8229,7 +8370,7 @@
         <v>0.9660962003665855</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="H46">
         <v>93.599512106506111</v>
@@ -8244,7 +8385,7 @@
         <v>0.9344395283228456</v>
       </c>
       <c r="M46" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="N46">
         <v>94.129966522201741</v>
@@ -8259,7 +8400,7 @@
         <v>0.94050849385473967</v>
       </c>
       <c r="S46" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="T46">
         <v>92.510834868813745</v>
@@ -8274,9 +8415,9 @@
         <v>0.92624820114191431</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>96.194690265486727</v>
@@ -8291,7 +8432,7 @@
         <v>0.96107089926818678</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="H47">
         <v>97.90577773164128</v>
@@ -8306,7 +8447,7 @@
         <v>0.97899638093715979</v>
       </c>
       <c r="M47" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="N47">
         <v>96.312684365781706</v>
@@ -8321,7 +8462,7 @@
         <v>0.96245065064744162</v>
       </c>
       <c r="S47" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="T47">
         <v>93.716814159292042</v>
@@ -8336,9 +8477,9 @@
         <v>0.93448511637340137</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B48">
         <f>AVERAGE(B3:B47)</f>
@@ -8349,7 +8490,7 @@
         <v>0.89687665716521991</v>
       </c>
       <c r="G48" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H48">
         <f>AVERAGE(H3:H47)</f>
@@ -8360,7 +8501,7 @@
         <v>0.84519520215310329</v>
       </c>
       <c r="M48" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="N48">
         <f>AVERAGE(N3:N47)</f>
@@ -8371,7 +8512,7 @@
         <v>0.89053664705141733</v>
       </c>
       <c r="S48" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="T48">
         <f>AVERAGE(T3:T47)</f>
@@ -8382,267 +8523,267 @@
         <v>0.83119014395342394</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
       <c r="G50" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
+      <c r="H50" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
       <c r="M50" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
       <c r="S50" t="s">
-        <v>0</v>
-      </c>
-      <c r="T50" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="T50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="41"/>
-      <c r="G51" s="1" t="s">
+      <c r="E51" s="11"/>
+      <c r="G51" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="40" t="s">
+      <c r="I51" s="11"/>
+      <c r="J51" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="41"/>
-      <c r="J51" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="K51" s="41"/>
-      <c r="M51" s="1" t="s">
+      <c r="K51" s="11"/>
+      <c r="M51" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="40" t="s">
+      <c r="O51" s="11"/>
+      <c r="P51" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O51" s="41"/>
-      <c r="P51" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q51" s="41"/>
-      <c r="S51" s="1" t="s">
+      <c r="Q51" s="11"/>
+      <c r="S51" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="T51" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="T51" s="40" t="s">
+      <c r="U51" s="11"/>
+      <c r="V51" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U51" s="41"/>
-      <c r="V51" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="W51" s="41"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W51" s="11"/>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="42"/>
+        <v>7</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="12"/>
       <c r="G52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="42"/>
+        <v>7</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="12"/>
       <c r="M52" t="s">
-        <v>56</v>
-      </c>
-      <c r="N52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q52" s="42"/>
+        <v>7</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q52" s="12"/>
       <c r="S52" t="s">
-        <v>56</v>
-      </c>
-      <c r="T52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="W52" s="42"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="W52" s="12"/>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="46">
+        <v>8</v>
+      </c>
+      <c r="B53" s="17">
         <v>90.052684038981511</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46">
+      <c r="C53" s="17"/>
+      <c r="D53" s="17">
         <v>0.89687665716521991</v>
       </c>
-      <c r="E53" s="46"/>
+      <c r="E53" s="17"/>
       <c r="G53" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="46">
+        <v>8</v>
+      </c>
+      <c r="H53" s="17">
         <v>84.905815217547996</v>
       </c>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46">
+      <c r="I53" s="17"/>
+      <c r="J53" s="17">
         <v>0.84519520215310329</v>
       </c>
-      <c r="K53" s="46"/>
+      <c r="K53" s="17"/>
       <c r="M53" t="s">
-        <v>55</v>
-      </c>
-      <c r="N53" s="46">
+        <v>8</v>
+      </c>
+      <c r="N53" s="17">
         <v>89.467992322117382</v>
       </c>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46">
+      <c r="O53" s="17"/>
+      <c r="P53" s="17">
         <v>0.89053664705141733</v>
       </c>
-      <c r="Q53" s="46"/>
+      <c r="Q53" s="17"/>
       <c r="S53" t="s">
-        <v>55</v>
-      </c>
-      <c r="T53" s="46">
+        <v>8</v>
+      </c>
+      <c r="T53" s="17">
         <v>83.490881793479559</v>
       </c>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46">
+      <c r="U53" s="17"/>
+      <c r="V53" s="17">
         <v>0.83119014395342394</v>
       </c>
-      <c r="W53" s="46"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W53" s="17"/>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="47"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="3">
+        <v>19</v>
+      </c>
+      <c r="B57" s="22">
         <f>_xlfn.T.TEST(B3:B47,H3:H47,1,1)</f>
-        <v>7.4156876478087363E-14</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>65</v>
+        <v>7.4156876478087363e-014</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="D57">
         <f>_xlfn.T.TEST(E3:E47,K3:K47,1,1)</f>
-        <v>3.5892821262126647E-13</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+        <v>3.5892821262126647e-013</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="3">
+        <v>21</v>
+      </c>
+      <c r="B58" s="22">
         <f>_xlfn.T.TEST(B3:B47,N3:N47,1,1)</f>
-        <v>5.2920277104500681E-3</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>65</v>
+        <v>5.2920277104500681e-003</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="D58">
         <f>_xlfn.T.TEST(E3:E47,Q3:Q47,1,1)</f>
-        <v>6.2006387326909527E-3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6.2006387326909527e-003</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="3">
+        <v>22</v>
+      </c>
+      <c r="B59" s="22">
         <f>_xlfn.T.TEST(B3:B47,T3:T47,1,1)</f>
-        <v>4.5256488392392584E-20</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>65</v>
+        <v>4.5256488392392584e-020</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="D59">
         <f>_xlfn.T.TEST(E3:E47,W3:W47,1,1)</f>
-        <v>1.7862932113660273E-19</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>65</v>
+        <v>1.7862932113660273e-019</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -8682,8 +8823,9 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:E52"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>